--- a/results/gurobi_limits/seed_50_k_100.xlsx
+++ b/results/gurobi_limits/seed_50_k_100.xlsx
@@ -423,7 +423,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>11.457</v>
+        <v>410.769</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -440,7 +440,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>95.709</v>
+        <v>632.169</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>116.327</v>
+        <v>807.212</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>198.881</v>
+        <v>1297.439</v>
       </c>
     </row>
   </sheetData>
